--- a/DiabetesCleaned.xlsx
+++ b/DiabetesCleaned.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H460"/>
+  <dimension ref="A1:I460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Age</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -501,6 +506,9 @@
       </c>
       <c r="H2" t="n">
         <v>25</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -528,6 +536,9 @@
       <c r="H3" t="n">
         <v>58</v>
       </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -553,6 +564,9 @@
       </c>
       <c r="H4" t="n">
         <v>22</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -580,6 +594,9 @@
       <c r="H5" t="n">
         <v>30</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +623,9 @@
       <c r="H6" t="n">
         <v>40</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -632,6 +652,9 @@
       <c r="H7" t="n">
         <v>35</v>
       </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -658,6 +681,9 @@
       <c r="H8" t="n">
         <v>27</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -684,6 +710,9 @@
       <c r="H9" t="n">
         <v>33</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -710,6 +739,9 @@
       <c r="H10" t="n">
         <v>27</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -736,6 +768,9 @@
       <c r="H11" t="n">
         <v>30</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -762,6 +797,9 @@
       <c r="H12" t="n">
         <v>53</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -788,6 +826,9 @@
       <c r="H13" t="n">
         <v>26</v>
       </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -814,6 +855,9 @@
       <c r="H14" t="n">
         <v>46</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -839,6 +883,9 @@
       </c>
       <c r="H15" t="n">
         <v>22</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -866,6 +913,9 @@
       <c r="H16" t="n">
         <v>43</v>
       </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -892,6 +942,9 @@
       <c r="H17" t="n">
         <v>53</v>
       </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -917,6 +970,9 @@
       </c>
       <c r="H18" t="n">
         <v>21</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -944,6 +1000,9 @@
       <c r="H19" t="n">
         <v>31</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -970,6 +1029,9 @@
       <c r="H20" t="n">
         <v>66</v>
       </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -996,6 +1058,9 @@
       <c r="H21" t="n">
         <v>32</v>
       </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1022,6 +1087,9 @@
       <c r="H22" t="n">
         <v>32</v>
       </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1048,6 +1116,9 @@
       <c r="H23" t="n">
         <v>33</v>
       </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1074,6 +1145,9 @@
       <c r="H24" t="n">
         <v>37</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1100,6 +1174,9 @@
       <c r="H25" t="n">
         <v>26</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1126,6 +1203,9 @@
       <c r="H26" t="n">
         <v>81</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1151,6 +1231,9 @@
       </c>
       <c r="H27" t="n">
         <v>41</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1178,6 +1261,9 @@
       <c r="H28" t="n">
         <v>28</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1204,6 +1290,9 @@
       <c r="H29" t="n">
         <v>31</v>
       </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1230,6 +1319,9 @@
       <c r="H30" t="n">
         <v>30</v>
       </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1255,6 +1347,9 @@
       </c>
       <c r="H31" t="n">
         <v>24</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1282,6 +1377,9 @@
       <c r="H32" t="n">
         <v>27</v>
       </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1308,6 +1406,9 @@
       <c r="H33" t="n">
         <v>49</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1334,6 +1435,9 @@
       <c r="H34" t="n">
         <v>35</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1360,6 +1464,9 @@
       <c r="H35" t="n">
         <v>32</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1386,6 +1493,9 @@
       <c r="H36" t="n">
         <v>39</v>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1412,6 +1522,9 @@
       <c r="H37" t="n">
         <v>25</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1438,6 +1551,9 @@
       <c r="H38" t="n">
         <v>45</v>
       </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1464,6 +1580,9 @@
       <c r="H39" t="n">
         <v>23</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1489,6 +1608,9 @@
       </c>
       <c r="H40" t="n">
         <v>24</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1516,6 +1638,9 @@
       <c r="H41" t="n">
         <v>65</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1542,6 +1667,9 @@
       <c r="H42" t="n">
         <v>66</v>
       </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1568,6 +1696,9 @@
       <c r="H43" t="n">
         <v>46</v>
       </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1594,6 +1725,9 @@
       <c r="H44" t="n">
         <v>50</v>
       </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1620,6 +1754,9 @@
       <c r="H45" t="n">
         <v>22</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1646,6 +1783,9 @@
       <c r="H46" t="n">
         <v>47</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1672,6 +1812,9 @@
       <c r="H47" t="n">
         <v>43</v>
       </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1698,6 +1841,9 @@
       <c r="H48" t="n">
         <v>42</v>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1723,6 +1869,9 @@
       </c>
       <c r="H49" t="n">
         <v>23</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1750,6 +1899,9 @@
       <c r="H50" t="n">
         <v>36</v>
       </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1776,6 +1928,9 @@
       <c r="H51" t="n">
         <v>36</v>
       </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1801,6 +1956,9 @@
       </c>
       <c r="H52" t="n">
         <v>65</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1828,6 +1986,9 @@
       <c r="H53" t="n">
         <v>39</v>
       </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1854,6 +2015,9 @@
       <c r="H54" t="n">
         <v>27</v>
       </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1880,6 +2044,9 @@
       <c r="H55" t="n">
         <v>33</v>
       </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1905,6 +2072,9 @@
       </c>
       <c r="H56" t="n">
         <v>22</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1932,6 +2102,9 @@
       <c r="H57" t="n">
         <v>31</v>
       </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1957,6 +2130,9 @@
       </c>
       <c r="H58" t="n">
         <v>21</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1984,6 +2160,9 @@
       <c r="H59" t="n">
         <v>24</v>
       </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2009,6 +2188,9 @@
       </c>
       <c r="H60" t="n">
         <v>21</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2036,6 +2218,9 @@
       <c r="H61" t="n">
         <v>28</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2062,6 +2247,9 @@
       <c r="H62" t="n">
         <v>22</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2088,6 +2276,9 @@
       <c r="H63" t="n">
         <v>21</v>
       </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2114,6 +2305,9 @@
       <c r="H64" t="n">
         <v>23</v>
       </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2139,6 +2333,9 @@
       </c>
       <c r="H65" t="n">
         <v>35</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2166,6 +2363,9 @@
       <c r="H66" t="n">
         <v>27</v>
       </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2192,6 +2392,9 @@
       <c r="H67" t="n">
         <v>28</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2218,6 +2421,9 @@
       <c r="H68" t="n">
         <v>26</v>
       </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2244,6 +2450,9 @@
       <c r="H69" t="n">
         <v>38</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2270,6 +2479,9 @@
       <c r="H70" t="n">
         <v>38</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2296,6 +2508,9 @@
       <c r="H71" t="n">
         <v>25</v>
       </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2322,6 +2537,9 @@
       <c r="H72" t="n">
         <v>43</v>
       </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2348,6 +2566,9 @@
       <c r="H73" t="n">
         <v>46</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2374,6 +2595,9 @@
       <c r="H74" t="n">
         <v>51</v>
       </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2400,6 +2624,9 @@
       <c r="H75" t="n">
         <v>42</v>
       </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2426,6 +2653,9 @@
       <c r="H76" t="n">
         <v>24</v>
       </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2452,6 +2682,9 @@
       <c r="H77" t="n">
         <v>29</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2478,6 +2711,9 @@
       <c r="H78" t="n">
         <v>27</v>
       </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2504,6 +2740,9 @@
       <c r="H79" t="n">
         <v>21</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2529,6 +2768,9 @@
       </c>
       <c r="H80" t="n">
         <v>21</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2556,6 +2798,9 @@
       <c r="H81" t="n">
         <v>25</v>
       </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2582,6 +2827,9 @@
       <c r="H82" t="n">
         <v>46</v>
       </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2608,6 +2856,9 @@
       <c r="H83" t="n">
         <v>21</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2633,6 +2884,9 @@
       </c>
       <c r="H84" t="n">
         <v>22</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2660,6 +2914,9 @@
       <c r="H85" t="n">
         <v>25</v>
       </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2685,6 +2942,9 @@
       </c>
       <c r="H86" t="n">
         <v>30</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2712,6 +2972,9 @@
       <c r="H87" t="n">
         <v>45</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2738,6 +3001,9 @@
       <c r="H88" t="n">
         <v>21</v>
       </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2764,6 +3030,9 @@
       <c r="H89" t="n">
         <v>21</v>
       </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2790,6 +3059,9 @@
       <c r="H90" t="n">
         <v>21</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2816,6 +3088,9 @@
       <c r="H91" t="n">
         <v>22</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2841,6 +3116,9 @@
       </c>
       <c r="H92" t="n">
         <v>32</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2868,6 +3146,9 @@
       <c r="H93" t="n">
         <v>44</v>
       </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2894,6 +3175,9 @@
       <c r="H94" t="n">
         <v>33</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2919,6 +3203,9 @@
       </c>
       <c r="H95" t="n">
         <v>24</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2946,6 +3233,9 @@
       <c r="H96" t="n">
         <v>44</v>
       </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2971,6 +3261,9 @@
       </c>
       <c r="H97" t="n">
         <v>26</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2998,6 +3291,9 @@
       <c r="H98" t="n">
         <v>60</v>
       </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3023,6 +3319,9 @@
       </c>
       <c r="H99" t="n">
         <v>26</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3050,6 +3349,9 @@
       <c r="H100" t="n">
         <v>23</v>
       </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3076,6 +3378,9 @@
       <c r="H101" t="n">
         <v>41</v>
       </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3102,6 +3407,9 @@
       <c r="H102" t="n">
         <v>45</v>
       </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3128,6 +3436,9 @@
       <c r="H103" t="n">
         <v>33</v>
       </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3154,6 +3465,9 @@
       <c r="H104" t="n">
         <v>28</v>
       </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3179,6 +3493,9 @@
       </c>
       <c r="H105" t="n">
         <v>33</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3206,6 +3523,9 @@
       <c r="H106" t="n">
         <v>50</v>
       </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3232,6 +3552,9 @@
       <c r="H107" t="n">
         <v>25</v>
       </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3258,6 +3581,9 @@
       <c r="H108" t="n">
         <v>45</v>
       </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3284,6 +3610,9 @@
       <c r="H109" t="n">
         <v>58</v>
       </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3309,6 +3638,9 @@
       </c>
       <c r="H110" t="n">
         <v>36</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3336,6 +3668,9 @@
       <c r="H111" t="n">
         <v>35</v>
       </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3362,6 +3697,9 @@
       <c r="H112" t="n">
         <v>31</v>
       </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3387,6 +3725,9 @@
       </c>
       <c r="H113" t="n">
         <v>22</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3414,6 +3755,9 @@
       <c r="H114" t="n">
         <v>32</v>
       </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3439,6 +3783,9 @@
       </c>
       <c r="H115" t="n">
         <v>22</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3466,6 +3813,9 @@
       <c r="H116" t="n">
         <v>38</v>
       </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3492,6 +3842,9 @@
       <c r="H117" t="n">
         <v>21</v>
       </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3518,6 +3871,9 @@
       <c r="H118" t="n">
         <v>21</v>
       </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3544,6 +3900,9 @@
       <c r="H119" t="n">
         <v>21</v>
       </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3569,6 +3928,9 @@
       </c>
       <c r="H120" t="n">
         <v>25</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3596,6 +3958,9 @@
       <c r="H121" t="n">
         <v>23</v>
       </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3621,6 +3986,9 @@
       </c>
       <c r="H122" t="n">
         <v>23</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3648,6 +4016,9 @@
       <c r="H123" t="n">
         <v>42</v>
       </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3673,6 +4044,9 @@
       </c>
       <c r="H124" t="n">
         <v>32</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3700,6 +4074,9 @@
       <c r="H125" t="n">
         <v>29</v>
       </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3726,6 +4103,9 @@
       <c r="H126" t="n">
         <v>24</v>
       </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3751,6 +4131,9 @@
       </c>
       <c r="H127" t="n">
         <v>28</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3778,6 +4161,9 @@
       <c r="H128" t="n">
         <v>30</v>
       </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3803,6 +4189,9 @@
       </c>
       <c r="H129" t="n">
         <v>46</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3830,6 +4219,9 @@
       <c r="H130" t="n">
         <v>22</v>
       </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3856,6 +4248,9 @@
       <c r="H131" t="n">
         <v>44</v>
       </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3881,6 +4276,9 @@
       </c>
       <c r="H132" t="n">
         <v>24</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3908,6 +4306,9 @@
       <c r="H133" t="n">
         <v>42</v>
       </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3933,6 +4334,9 @@
       </c>
       <c r="H134" t="n">
         <v>36</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3960,6 +4364,9 @@
       <c r="H135" t="n">
         <v>60</v>
       </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3985,6 +4392,9 @@
       </c>
       <c r="H136" t="n">
         <v>47</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -4012,6 +4422,9 @@
       <c r="H137" t="n">
         <v>59</v>
       </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4038,6 +4451,9 @@
       <c r="H138" t="n">
         <v>28</v>
       </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4063,6 +4479,9 @@
       </c>
       <c r="H139" t="n">
         <v>26</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -4090,6 +4509,9 @@
       <c r="H140" t="n">
         <v>22</v>
       </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4116,6 +4538,9 @@
       <c r="H141" t="n">
         <v>23</v>
       </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4142,6 +4567,9 @@
       <c r="H142" t="n">
         <v>31</v>
       </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4168,6 +4596,9 @@
       <c r="H143" t="n">
         <v>23</v>
       </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4194,6 +4625,9 @@
       <c r="H144" t="n">
         <v>21</v>
       </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4220,6 +4654,9 @@
       <c r="H145" t="n">
         <v>26</v>
       </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4245,6 +4682,9 @@
       </c>
       <c r="H146" t="n">
         <v>29</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -4272,6 +4712,9 @@
       <c r="H147" t="n">
         <v>40</v>
       </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4298,6 +4741,9 @@
       <c r="H148" t="n">
         <v>22</v>
       </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4323,6 +4769,9 @@
       </c>
       <c r="H149" t="n">
         <v>22</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4350,6 +4799,9 @@
       <c r="H150" t="n">
         <v>43</v>
       </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4376,6 +4828,9 @@
       <c r="H151" t="n">
         <v>32</v>
       </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4402,6 +4857,9 @@
       <c r="H152" t="n">
         <v>41</v>
       </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4427,6 +4885,9 @@
       </c>
       <c r="H153" t="n">
         <v>26</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4454,6 +4915,9 @@
       <c r="H154" t="n">
         <v>21</v>
       </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4480,6 +4944,9 @@
       <c r="H155" t="n">
         <v>29</v>
       </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4506,6 +4973,9 @@
       <c r="H156" t="n">
         <v>37</v>
       </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4532,6 +5002,9 @@
       <c r="H157" t="n">
         <v>46</v>
       </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4558,6 +5031,9 @@
       <c r="H158" t="n">
         <v>26</v>
       </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4584,6 +5060,9 @@
       <c r="H159" t="n">
         <v>34</v>
       </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4610,6 +5089,9 @@
       <c r="H160" t="n">
         <v>27</v>
       </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4636,6 +5118,9 @@
       <c r="H161" t="n">
         <v>67</v>
       </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4661,6 +5146,9 @@
       </c>
       <c r="H162" t="n">
         <v>22</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4688,6 +5176,9 @@
       <c r="H163" t="n">
         <v>24</v>
       </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4714,6 +5205,9 @@
       <c r="H164" t="n">
         <v>50</v>
       </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4740,6 +5234,9 @@
       <c r="H165" t="n">
         <v>27</v>
       </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4766,6 +5263,9 @@
       <c r="H166" t="n">
         <v>22</v>
       </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4791,6 +5291,9 @@
       </c>
       <c r="H167" t="n">
         <v>21</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -4818,6 +5321,9 @@
       <c r="H168" t="n">
         <v>41</v>
       </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4844,6 +5350,9 @@
       <c r="H169" t="n">
         <v>25</v>
       </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4870,6 +5379,9 @@
       <c r="H170" t="n">
         <v>27</v>
       </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4895,6 +5407,9 @@
       </c>
       <c r="H171" t="n">
         <v>27</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4922,6 +5437,9 @@
       <c r="H172" t="n">
         <v>56</v>
       </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4948,6 +5466,9 @@
       <c r="H173" t="n">
         <v>34</v>
       </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4973,6 +5494,9 @@
       </c>
       <c r="H174" t="n">
         <v>26</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -5000,6 +5524,9 @@
       <c r="H175" t="n">
         <v>26</v>
       </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5026,6 +5553,9 @@
       <c r="H176" t="n">
         <v>45</v>
       </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5052,6 +5582,9 @@
       <c r="H177" t="n">
         <v>56</v>
       </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5078,6 +5611,9 @@
       <c r="H178" t="n">
         <v>22</v>
       </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5104,6 +5640,9 @@
       <c r="H179" t="n">
         <v>30</v>
       </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5129,6 +5668,9 @@
       </c>
       <c r="H180" t="n">
         <v>22</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -5156,6 +5698,9 @@
       <c r="H181" t="n">
         <v>23</v>
       </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5182,6 +5727,9 @@
       <c r="H182" t="n">
         <v>64</v>
       </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5208,6 +5756,9 @@
       <c r="H183" t="n">
         <v>51</v>
       </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5233,6 +5784,9 @@
       </c>
       <c r="H184" t="n">
         <v>21</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -5260,6 +5814,9 @@
       <c r="H185" t="n">
         <v>37</v>
       </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -5286,6 +5843,9 @@
       <c r="H186" t="n">
         <v>27</v>
       </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5312,6 +5872,9 @@
       <c r="H187" t="n">
         <v>22</v>
       </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5337,6 +5900,9 @@
       </c>
       <c r="H188" t="n">
         <v>21</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5364,6 +5930,9 @@
       <c r="H189" t="n">
         <v>63</v>
       </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -5389,6 +5958,9 @@
       </c>
       <c r="H190" t="n">
         <v>33</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -5416,6 +5988,9 @@
       <c r="H191" t="n">
         <v>32</v>
       </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -5442,6 +6017,9 @@
       <c r="H192" t="n">
         <v>33</v>
       </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -5467,6 +6045,9 @@
       </c>
       <c r="H193" t="n">
         <v>21</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -5494,6 +6075,9 @@
       <c r="H194" t="n">
         <v>46</v>
       </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -5520,6 +6104,9 @@
       <c r="H195" t="n">
         <v>52</v>
       </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -5545,6 +6132,9 @@
       </c>
       <c r="H196" t="n">
         <v>29</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -5572,6 +6162,9 @@
       <c r="H197" t="n">
         <v>49</v>
       </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -5598,6 +6191,9 @@
       <c r="H198" t="n">
         <v>42</v>
       </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -5623,6 +6219,9 @@
       </c>
       <c r="H199" t="n">
         <v>22</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -5650,6 +6249,9 @@
       <c r="H200" t="n">
         <v>24</v>
       </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5675,6 +6277,9 @@
       </c>
       <c r="H201" t="n">
         <v>21</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -5702,6 +6307,9 @@
       <c r="H202" t="n">
         <v>29</v>
       </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5728,6 +6336,9 @@
       <c r="H203" t="n">
         <v>47</v>
       </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5754,6 +6365,9 @@
       <c r="H204" t="n">
         <v>39</v>
       </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5779,6 +6393,9 @@
       </c>
       <c r="H205" t="n">
         <v>29</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -5806,6 +6423,9 @@
       <c r="H206" t="n">
         <v>21</v>
       </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5832,6 +6452,9 @@
       <c r="H207" t="n">
         <v>27</v>
       </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5857,6 +6480,9 @@
       </c>
       <c r="H208" t="n">
         <v>22</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5884,6 +6510,9 @@
       <c r="H209" t="n">
         <v>26</v>
       </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5910,6 +6539,9 @@
       <c r="H210" t="n">
         <v>21</v>
       </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5935,6 +6567,9 @@
       </c>
       <c r="H211" t="n">
         <v>41</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -5962,6 +6597,9 @@
       <c r="H212" t="n">
         <v>25</v>
       </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5988,6 +6626,9 @@
       <c r="H213" t="n">
         <v>29</v>
       </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -6014,6 +6655,9 @@
       <c r="H214" t="n">
         <v>23</v>
       </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -6040,6 +6684,9 @@
       <c r="H215" t="n">
         <v>45</v>
       </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -6066,6 +6713,9 @@
       <c r="H216" t="n">
         <v>35</v>
       </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -6092,6 +6742,9 @@
       <c r="H217" t="n">
         <v>21</v>
       </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -6117,6 +6770,9 @@
       </c>
       <c r="H218" t="n">
         <v>25</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -6144,6 +6800,9 @@
       <c r="H219" t="n">
         <v>61</v>
       </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -6170,6 +6829,9 @@
       <c r="H220" t="n">
         <v>54</v>
       </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -6196,6 +6858,9 @@
       <c r="H221" t="n">
         <v>37</v>
       </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -6222,6 +6887,9 @@
       <c r="H222" t="n">
         <v>32</v>
       </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -6248,6 +6916,9 @@
       <c r="H223" t="n">
         <v>39</v>
       </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -6274,6 +6945,9 @@
       <c r="H224" t="n">
         <v>34</v>
       </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -6300,6 +6974,9 @@
       <c r="H225" t="n">
         <v>36</v>
       </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -6325,6 +7002,9 @@
       </c>
       <c r="H226" t="n">
         <v>27</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -6352,6 +7032,9 @@
       <c r="H227" t="n">
         <v>31</v>
       </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -6377,6 +7060,9 @@
       </c>
       <c r="H228" t="n">
         <v>22</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -6404,6 +7090,9 @@
       <c r="H229" t="n">
         <v>25</v>
       </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -6430,6 +7119,9 @@
       <c r="H230" t="n">
         <v>28</v>
       </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -6456,6 +7148,9 @@
       <c r="H231" t="n">
         <v>28</v>
       </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -6481,6 +7176,9 @@
       </c>
       <c r="H232" t="n">
         <v>21</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -6508,6 +7206,9 @@
       <c r="H233" t="n">
         <v>50</v>
       </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -6534,6 +7235,9 @@
       <c r="H234" t="n">
         <v>30</v>
       </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -6560,6 +7264,9 @@
       <c r="H235" t="n">
         <v>37</v>
       </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -6586,6 +7293,9 @@
       <c r="H236" t="n">
         <v>34</v>
       </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -6612,6 +7322,9 @@
       <c r="H237" t="n">
         <v>23</v>
       </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -6638,6 +7351,9 @@
       <c r="H238" t="n">
         <v>55</v>
       </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -6664,6 +7380,9 @@
       <c r="H239" t="n">
         <v>51</v>
       </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -6690,6 +7409,9 @@
       <c r="H240" t="n">
         <v>21</v>
       </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -6715,6 +7437,9 @@
       </c>
       <c r="H241" t="n">
         <v>26</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -6742,6 +7467,9 @@
       <c r="H242" t="n">
         <v>21</v>
       </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6768,6 +7496,9 @@
       <c r="H243" t="n">
         <v>54</v>
       </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6793,6 +7524,9 @@
       </c>
       <c r="H244" t="n">
         <v>33</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -6820,6 +7554,9 @@
       <c r="H245" t="n">
         <v>41</v>
       </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6846,6 +7583,9 @@
       <c r="H246" t="n">
         <v>30</v>
       </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6872,6 +7612,9 @@
       <c r="H247" t="n">
         <v>24</v>
       </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6897,6 +7640,9 @@
       </c>
       <c r="H248" t="n">
         <v>62</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -6924,6 +7670,9 @@
       <c r="H249" t="n">
         <v>52</v>
       </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6950,6 +7699,9 @@
       <c r="H250" t="n">
         <v>22</v>
       </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6976,6 +7728,9 @@
       <c r="H251" t="n">
         <v>45</v>
       </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -7002,6 +7757,9 @@
       <c r="H252" t="n">
         <v>24</v>
       </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -7027,6 +7785,9 @@
       </c>
       <c r="H253" t="n">
         <v>59</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -7054,6 +7815,9 @@
       <c r="H254" t="n">
         <v>35</v>
       </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -7080,6 +7844,9 @@
       <c r="H255" t="n">
         <v>40</v>
       </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -7106,6 +7873,9 @@
       <c r="H256" t="n">
         <v>28</v>
       </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -7131,6 +7901,9 @@
       </c>
       <c r="H257" t="n">
         <v>25</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -7158,6 +7931,9 @@
       <c r="H258" t="n">
         <v>24</v>
       </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -7184,6 +7960,9 @@
       <c r="H259" t="n">
         <v>33.09431066217734</v>
       </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -7210,6 +7989,9 @@
       <c r="H260" t="n">
         <v>51</v>
       </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -7236,6 +8018,9 @@
       <c r="H261" t="n">
         <v>48</v>
       </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -7262,6 +8047,9 @@
       <c r="H262" t="n">
         <v>22</v>
       </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -7287,6 +8075,9 @@
       </c>
       <c r="H263" t="n">
         <v>31</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -7314,6 +8105,9 @@
       <c r="H264" t="n">
         <v>23</v>
       </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -7339,6 +8133,9 @@
       </c>
       <c r="H265" t="n">
         <v>21</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -7366,6 +8163,9 @@
       <c r="H266" t="n">
         <v>60</v>
       </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -7392,6 +8192,9 @@
       <c r="H267" t="n">
         <v>45</v>
       </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -7418,6 +8221,9 @@
       <c r="H268" t="n">
         <v>24</v>
       </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -7443,6 +8249,9 @@
       </c>
       <c r="H269" t="n">
         <v>27</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -7470,6 +8279,9 @@
       <c r="H270" t="n">
         <v>28</v>
       </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -7496,6 +8308,9 @@
       <c r="H271" t="n">
         <v>28</v>
       </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -7522,6 +8337,9 @@
       <c r="H272" t="n">
         <v>22</v>
       </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -7548,6 +8366,9 @@
       <c r="H273" t="n">
         <v>35</v>
       </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -7573,6 +8394,9 @@
       </c>
       <c r="H274" t="n">
         <v>21</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -7600,6 +8424,9 @@
       <c r="H275" t="n">
         <v>37</v>
       </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -7625,6 +8452,9 @@
       </c>
       <c r="H276" t="n">
         <v>46</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -7652,6 +8482,9 @@
       <c r="H277" t="n">
         <v>50</v>
       </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -7678,6 +8511,9 @@
       <c r="H278" t="n">
         <v>31</v>
       </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -7704,6 +8540,9 @@
       <c r="H279" t="n">
         <v>22</v>
       </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -7730,6 +8569,9 @@
       <c r="H280" t="n">
         <v>52</v>
       </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -7756,6 +8598,9 @@
       <c r="H281" t="n">
         <v>22</v>
       </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -7782,6 +8627,9 @@
       <c r="H282" t="n">
         <v>22</v>
       </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -7807,6 +8655,9 @@
       </c>
       <c r="H283" t="n">
         <v>45</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -7834,6 +8685,9 @@
       <c r="H284" t="n">
         <v>23</v>
       </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -7860,6 +8714,9 @@
       <c r="H285" t="n">
         <v>41</v>
       </c>
+      <c r="I285" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -7886,6 +8743,9 @@
       <c r="H286" t="n">
         <v>21</v>
       </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7911,6 +8771,9 @@
       </c>
       <c r="H287" t="n">
         <v>43</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -7938,6 +8801,9 @@
       <c r="H288" t="n">
         <v>27</v>
       </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7964,6 +8830,9 @@
       <c r="H289" t="n">
         <v>28</v>
       </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7990,6 +8859,9 @@
       <c r="H290" t="n">
         <v>31</v>
       </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -8015,6 +8887,9 @@
       </c>
       <c r="H291" t="n">
         <v>21</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -8042,6 +8917,9 @@
       <c r="H292" t="n">
         <v>42</v>
       </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -8067,6 +8945,9 @@
       </c>
       <c r="H293" t="n">
         <v>29</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -8094,6 +8975,9 @@
       <c r="H294" t="n">
         <v>67</v>
       </c>
+      <c r="I294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -8120,6 +9004,9 @@
       <c r="H295" t="n">
         <v>25</v>
       </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -8145,6 +9032,9 @@
       </c>
       <c r="H296" t="n">
         <v>24</v>
+      </c>
+      <c r="I296" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -8172,6 +9062,9 @@
       <c r="H297" t="n">
         <v>39</v>
       </c>
+      <c r="I297" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -8198,6 +9091,9 @@
       <c r="H298" t="n">
         <v>23</v>
       </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -8223,6 +9119,9 @@
       </c>
       <c r="H299" t="n">
         <v>67</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -8250,6 +9149,9 @@
       <c r="H300" t="n">
         <v>40</v>
       </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -8275,6 +9177,9 @@
       </c>
       <c r="H301" t="n">
         <v>52</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -8302,6 +9207,9 @@
       <c r="H302" t="n">
         <v>57</v>
       </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -8327,6 +9235,9 @@
       </c>
       <c r="H303" t="n">
         <v>25</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -8354,6 +9265,9 @@
       <c r="H304" t="n">
         <v>31</v>
       </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -8380,6 +9294,9 @@
       <c r="H305" t="n">
         <v>22</v>
       </c>
+      <c r="I305" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -8405,6 +9322,9 @@
       </c>
       <c r="H306" t="n">
         <v>24</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -8432,6 +9352,9 @@
       <c r="H307" t="n">
         <v>22</v>
       </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -8458,6 +9381,9 @@
       <c r="H308" t="n">
         <v>31</v>
       </c>
+      <c r="I308" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -8484,6 +9410,9 @@
       <c r="H309" t="n">
         <v>39</v>
       </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -8510,6 +9439,9 @@
       <c r="H310" t="n">
         <v>25</v>
       </c>
+      <c r="I310" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -8535,6 +9467,9 @@
       </c>
       <c r="H311" t="n">
         <v>40</v>
+      </c>
+      <c r="I311" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -8562,6 +9497,9 @@
       <c r="H312" t="n">
         <v>22</v>
       </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -8588,6 +9526,9 @@
       <c r="H313" t="n">
         <v>39</v>
       </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -8613,6 +9554,9 @@
       </c>
       <c r="H314" t="n">
         <v>22</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -8640,6 +9584,9 @@
       <c r="H315" t="n">
         <v>30</v>
       </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -8666,6 +9613,9 @@
       <c r="H316" t="n">
         <v>36</v>
       </c>
+      <c r="I316" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -8692,6 +9642,9 @@
       <c r="H317" t="n">
         <v>45</v>
       </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -8718,6 +9671,9 @@
       <c r="H318" t="n">
         <v>22</v>
       </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -8744,6 +9700,9 @@
       <c r="H319" t="n">
         <v>21</v>
       </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -8770,6 +9729,9 @@
       <c r="H320" t="n">
         <v>25</v>
       </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -8796,6 +9758,9 @@
       <c r="H321" t="n">
         <v>26</v>
       </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -8821,6 +9786,9 @@
       </c>
       <c r="H322" t="n">
         <v>27</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -8848,6 +9816,9 @@
       <c r="H323" t="n">
         <v>41</v>
       </c>
+      <c r="I323" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -8873,6 +9844,9 @@
       </c>
       <c r="H324" t="n">
         <v>26</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -8900,6 +9874,9 @@
       <c r="H325" t="n">
         <v>49</v>
       </c>
+      <c r="I325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -8926,6 +9903,9 @@
       <c r="H326" t="n">
         <v>30</v>
       </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -8952,6 +9932,9 @@
       <c r="H327" t="n">
         <v>24</v>
       </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -8977,6 +9960,9 @@
       </c>
       <c r="H328" t="n">
         <v>24</v>
+      </c>
+      <c r="I328" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -9004,6 +9990,9 @@
       <c r="H329" t="n">
         <v>31</v>
       </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -9030,6 +10019,9 @@
       <c r="H330" t="n">
         <v>40</v>
       </c>
+      <c r="I330" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -9056,6 +10048,9 @@
       <c r="H331" t="n">
         <v>36</v>
       </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -9082,6 +10077,9 @@
       <c r="H332" t="n">
         <v>22</v>
       </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -9107,6 +10105,9 @@
       </c>
       <c r="H333" t="n">
         <v>25</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -9134,6 +10135,9 @@
       <c r="H334" t="n">
         <v>51</v>
       </c>
+      <c r="I334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -9159,6 +10163,9 @@
       </c>
       <c r="H335" t="n">
         <v>22</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -9186,6 +10193,9 @@
       <c r="H336" t="n">
         <v>32</v>
       </c>
+      <c r="I336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -9211,6 +10221,9 @@
       </c>
       <c r="H337" t="n">
         <v>23</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -9238,6 +10251,9 @@
       <c r="H338" t="n">
         <v>42</v>
       </c>
+      <c r="I338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -9264,6 +10280,9 @@
       <c r="H339" t="n">
         <v>33</v>
       </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -9290,6 +10309,9 @@
       <c r="H340" t="n">
         <v>28</v>
       </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -9316,6 +10338,9 @@
       <c r="H341" t="n">
         <v>65</v>
       </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -9342,6 +10367,9 @@
       <c r="H342" t="n">
         <v>50</v>
       </c>
+      <c r="I342" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -9367,6 +10395,9 @@
       </c>
       <c r="H343" t="n">
         <v>25</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -9394,6 +10425,9 @@
       <c r="H344" t="n">
         <v>32</v>
       </c>
+      <c r="I344" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -9419,6 +10453,9 @@
       </c>
       <c r="H345" t="n">
         <v>30</v>
+      </c>
+      <c r="I345" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -9446,6 +10483,9 @@
       <c r="H346" t="n">
         <v>63</v>
       </c>
+      <c r="I346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -9472,6 +10512,9 @@
       <c r="H347" t="n">
         <v>44</v>
       </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -9497,6 +10540,9 @@
       </c>
       <c r="H348" t="n">
         <v>24</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -9524,6 +10570,9 @@
       <c r="H349" t="n">
         <v>28</v>
       </c>
+      <c r="I349" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -9550,6 +10599,9 @@
       <c r="H350" t="n">
         <v>41</v>
       </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -9576,6 +10628,9 @@
       <c r="H351" t="n">
         <v>68</v>
       </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -9602,6 +10657,9 @@
       <c r="H352" t="n">
         <v>23</v>
       </c>
+      <c r="I352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -9628,6 +10686,9 @@
       <c r="H353" t="n">
         <v>22</v>
       </c>
+      <c r="I353" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -9653,6 +10714,9 @@
       </c>
       <c r="H354" t="n">
         <v>22</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -9680,6 +10744,9 @@
       <c r="H355" t="n">
         <v>24</v>
       </c>
+      <c r="I355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -9705,6 +10772,9 @@
       </c>
       <c r="H356" t="n">
         <v>21</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -9732,6 +10802,9 @@
       <c r="H357" t="n">
         <v>25</v>
       </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -9757,6 +10830,9 @@
       </c>
       <c r="H358" t="n">
         <v>31</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -9784,6 +10860,9 @@
       <c r="H359" t="n">
         <v>52</v>
       </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -9810,6 +10889,9 @@
       <c r="H360" t="n">
         <v>40</v>
       </c>
+      <c r="I360" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -9836,6 +10918,9 @@
       <c r="H361" t="n">
         <v>24</v>
       </c>
+      <c r="I361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -9862,6 +10947,9 @@
       <c r="H362" t="n">
         <v>47</v>
       </c>
+      <c r="I362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -9887,6 +10975,9 @@
       </c>
       <c r="H363" t="n">
         <v>25</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -9914,6 +11005,9 @@
       <c r="H364" t="n">
         <v>54</v>
       </c>
+      <c r="I364" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -9939,6 +11033,9 @@
       </c>
       <c r="H365" t="n">
         <v>28</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -9966,6 +11063,9 @@
       <c r="H366" t="n">
         <v>41</v>
       </c>
+      <c r="I366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -9991,6 +11091,9 @@
       </c>
       <c r="H367" t="n">
         <v>25</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -10018,6 +11121,9 @@
       <c r="H368" t="n">
         <v>34</v>
       </c>
+      <c r="I368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -10043,6 +11149,9 @@
       </c>
       <c r="H369" t="n">
         <v>21</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -10070,6 +11179,9 @@
       <c r="H370" t="n">
         <v>48</v>
       </c>
+      <c r="I370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -10096,6 +11208,9 @@
       <c r="H371" t="n">
         <v>24</v>
       </c>
+      <c r="I371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -10122,6 +11237,9 @@
       <c r="H372" t="n">
         <v>43</v>
       </c>
+      <c r="I372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -10148,6 +11266,9 @@
       <c r="H373" t="n">
         <v>51</v>
       </c>
+      <c r="I373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -10174,6 +11295,9 @@
       <c r="H374" t="n">
         <v>22</v>
       </c>
+      <c r="I374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -10200,6 +11324,9 @@
       <c r="H375" t="n">
         <v>23</v>
       </c>
+      <c r="I375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -10226,6 +11353,9 @@
       <c r="H376" t="n">
         <v>26</v>
       </c>
+      <c r="I376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -10252,6 +11382,9 @@
       <c r="H377" t="n">
         <v>29</v>
       </c>
+      <c r="I377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -10277,6 +11410,9 @@
       </c>
       <c r="H378" t="n">
         <v>23</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -10304,6 +11440,9 @@
       <c r="H379" t="n">
         <v>22</v>
       </c>
+      <c r="I379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -10330,6 +11469,9 @@
       <c r="H380" t="n">
         <v>36</v>
       </c>
+      <c r="I380" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -10356,6 +11498,9 @@
       <c r="H381" t="n">
         <v>41</v>
       </c>
+      <c r="I381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -10381,6 +11526,9 @@
       </c>
       <c r="H382" t="n">
         <v>26</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -10408,6 +11556,9 @@
       <c r="H383" t="n">
         <v>70</v>
       </c>
+      <c r="I383" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -10433,6 +11584,9 @@
       </c>
       <c r="H384" t="n">
         <v>28</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -10460,6 +11614,9 @@
       <c r="H385" t="n">
         <v>34</v>
       </c>
+      <c r="I385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -10486,6 +11643,9 @@
       <c r="H386" t="n">
         <v>38</v>
       </c>
+      <c r="I386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -10512,6 +11672,9 @@
       <c r="H387" t="n">
         <v>31</v>
       </c>
+      <c r="I387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -10537,6 +11700,9 @@
       </c>
       <c r="H388" t="n">
         <v>29</v>
+      </c>
+      <c r="I388" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -10564,6 +11730,9 @@
       <c r="H389" t="n">
         <v>25</v>
       </c>
+      <c r="I389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -10590,6 +11759,9 @@
       <c r="H390" t="n">
         <v>29</v>
       </c>
+      <c r="I390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -10616,6 +11788,9 @@
       <c r="H391" t="n">
         <v>62</v>
       </c>
+      <c r="I391" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -10641,6 +11816,9 @@
       </c>
       <c r="H392" t="n">
         <v>24</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -10668,6 +11846,9 @@
       <c r="H393" t="n">
         <v>29</v>
       </c>
+      <c r="I393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -10694,6 +11875,9 @@
       <c r="H394" t="n">
         <v>24</v>
       </c>
+      <c r="I394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -10720,6 +11904,9 @@
       <c r="H395" t="n">
         <v>40</v>
       </c>
+      <c r="I395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -10746,6 +11933,9 @@
       <c r="H396" t="n">
         <v>53</v>
       </c>
+      <c r="I396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -10772,6 +11962,9 @@
       <c r="H397" t="n">
         <v>39</v>
       </c>
+      <c r="I397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -10798,6 +11991,9 @@
       <c r="H398" t="n">
         <v>42</v>
       </c>
+      <c r="I398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -10824,6 +12020,9 @@
       <c r="H399" t="n">
         <v>25</v>
       </c>
+      <c r="I399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -10850,6 +12049,9 @@
       <c r="H400" t="n">
         <v>38</v>
       </c>
+      <c r="I400" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -10876,6 +12078,9 @@
       <c r="H401" t="n">
         <v>25</v>
       </c>
+      <c r="I401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -10902,6 +12107,9 @@
       <c r="H402" t="n">
         <v>30</v>
       </c>
+      <c r="I402" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -10928,6 +12136,9 @@
       <c r="H403" t="n">
         <v>40</v>
       </c>
+      <c r="I403" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -10954,6 +12165,9 @@
       <c r="H404" t="n">
         <v>34</v>
       </c>
+      <c r="I404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -10980,6 +12194,9 @@
       <c r="H405" t="n">
         <v>39</v>
       </c>
+      <c r="I405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -11006,6 +12223,9 @@
       <c r="H406" t="n">
         <v>46</v>
       </c>
+      <c r="I406" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -11032,6 +12252,9 @@
       <c r="H407" t="n">
         <v>37</v>
       </c>
+      <c r="I407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -11058,6 +12281,9 @@
       <c r="H408" t="n">
         <v>26</v>
       </c>
+      <c r="I408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -11084,6 +12310,9 @@
       <c r="H409" t="n">
         <v>43</v>
       </c>
+      <c r="I409" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -11110,6 +12339,9 @@
       <c r="H410" t="n">
         <v>37</v>
       </c>
+      <c r="I410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -11136,6 +12368,9 @@
       <c r="H411" t="n">
         <v>55</v>
       </c>
+      <c r="I411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -11162,6 +12397,9 @@
       <c r="H412" t="n">
         <v>21</v>
       </c>
+      <c r="I412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -11188,6 +12426,9 @@
       <c r="H413" t="n">
         <v>45</v>
       </c>
+      <c r="I413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -11214,6 +12455,9 @@
       <c r="H414" t="n">
         <v>25</v>
       </c>
+      <c r="I414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -11240,6 +12484,9 @@
       <c r="H415" t="n">
         <v>33</v>
       </c>
+      <c r="I415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -11266,6 +12513,9 @@
       <c r="H416" t="n">
         <v>21</v>
       </c>
+      <c r="I416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -11291,6 +12541,9 @@
       </c>
       <c r="H417" t="n">
         <v>22</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -11318,6 +12571,9 @@
       <c r="H418" t="n">
         <v>56</v>
       </c>
+      <c r="I418" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -11343,6 +12599,9 @@
       </c>
       <c r="H419" t="n">
         <v>41</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -11370,6 +12629,9 @@
       <c r="H420" t="n">
         <v>26</v>
       </c>
+      <c r="I420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -11396,6 +12658,9 @@
       <c r="H421" t="n">
         <v>29</v>
       </c>
+      <c r="I421" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -11422,6 +12687,9 @@
       <c r="H422" t="n">
         <v>28</v>
       </c>
+      <c r="I422" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -11448,6 +12716,9 @@
       <c r="H423" t="n">
         <v>49</v>
       </c>
+      <c r="I423" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -11473,6 +12744,9 @@
       </c>
       <c r="H424" t="n">
         <v>22</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -11500,6 +12774,9 @@
       <c r="H425" t="n">
         <v>54</v>
       </c>
+      <c r="I425" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -11526,6 +12803,9 @@
       <c r="H426" t="n">
         <v>37</v>
       </c>
+      <c r="I426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -11552,6 +12832,9 @@
       <c r="H427" t="n">
         <v>29</v>
       </c>
+      <c r="I427" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -11577,6 +12860,9 @@
       </c>
       <c r="H428" t="n">
         <v>21</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -11604,6 +12890,9 @@
       <c r="H429" t="n">
         <v>42</v>
       </c>
+      <c r="I429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -11630,6 +12919,9 @@
       <c r="H430" t="n">
         <v>40</v>
       </c>
+      <c r="I430" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -11656,6 +12948,9 @@
       <c r="H431" t="n">
         <v>31</v>
       </c>
+      <c r="I431" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -11682,6 +12977,9 @@
       <c r="H432" t="n">
         <v>22</v>
       </c>
+      <c r="I432" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -11707,6 +13005,9 @@
       </c>
       <c r="H433" t="n">
         <v>23</v>
+      </c>
+      <c r="I433" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -11734,6 +13035,9 @@
       <c r="H434" t="n">
         <v>38</v>
       </c>
+      <c r="I434" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -11760,6 +13064,9 @@
       <c r="H435" t="n">
         <v>31</v>
       </c>
+      <c r="I435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -11786,6 +13093,9 @@
       <c r="H436" t="n">
         <v>48</v>
       </c>
+      <c r="I436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -11812,6 +13122,9 @@
       <c r="H437" t="n">
         <v>30</v>
       </c>
+      <c r="I437" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -11838,6 +13151,9 @@
       <c r="H438" t="n">
         <v>33</v>
       </c>
+      <c r="I438" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -11864,6 +13180,9 @@
       <c r="H439" t="n">
         <v>25</v>
       </c>
+      <c r="I439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -11890,6 +13209,9 @@
       <c r="H440" t="n">
         <v>42</v>
       </c>
+      <c r="I440" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -11916,6 +13238,9 @@
       <c r="H441" t="n">
         <v>58</v>
       </c>
+      <c r="I441" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -11942,6 +13267,9 @@
       <c r="H442" t="n">
         <v>35</v>
       </c>
+      <c r="I442" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -11968,6 +13296,9 @@
       <c r="H443" t="n">
         <v>23</v>
       </c>
+      <c r="I443" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -11993,6 +13324,9 @@
       </c>
       <c r="H444" t="n">
         <v>25</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -12020,6 +13354,9 @@
       <c r="H445" t="n">
         <v>21</v>
       </c>
+      <c r="I445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -12046,6 +13383,9 @@
       <c r="H446" t="n">
         <v>44</v>
       </c>
+      <c r="I446" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -12071,6 +13411,9 @@
       </c>
       <c r="H447" t="n">
         <v>22</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -12098,6 +13441,9 @@
       <c r="H448" t="n">
         <v>22</v>
       </c>
+      <c r="I448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -12124,6 +13470,9 @@
       <c r="H449" t="n">
         <v>48</v>
       </c>
+      <c r="I449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -12150,6 +13499,9 @@
       <c r="H450" t="n">
         <v>30</v>
       </c>
+      <c r="I450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -12176,6 +13528,9 @@
       <c r="H451" t="n">
         <v>26</v>
       </c>
+      <c r="I451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -12202,6 +13557,9 @@
       <c r="H452" t="n">
         <v>27</v>
       </c>
+      <c r="I452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -12228,6 +13586,9 @@
       <c r="H453" t="n">
         <v>27</v>
       </c>
+      <c r="I453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -12254,6 +13615,9 @@
       <c r="H454" t="n">
         <v>28</v>
       </c>
+      <c r="I454" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -12280,6 +13644,9 @@
       <c r="H455" t="n">
         <v>33</v>
       </c>
+      <c r="I455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -12306,6 +13673,9 @@
       <c r="H456" t="n">
         <v>21</v>
       </c>
+      <c r="I456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -12332,6 +13702,9 @@
       <c r="H457" t="n">
         <v>27</v>
       </c>
+      <c r="I457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -12357,6 +13730,9 @@
       </c>
       <c r="H458" t="n">
         <v>22</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -12384,6 +13760,9 @@
       <c r="H459" t="n">
         <v>37</v>
       </c>
+      <c r="I459" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -12409,6 +13788,9 @@
       </c>
       <c r="H460" t="n">
         <v>62</v>
+      </c>
+      <c r="I460" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12422,7 +13804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12471,6 +13853,11 @@
           <t>Age</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12497,6 +13884,9 @@
       <c r="H2" t="n">
         <v>25</v>
       </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -12523,6 +13913,9 @@
       <c r="H3" t="n">
         <v>36</v>
       </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -12549,6 +13942,9 @@
       <c r="H4" t="n">
         <v>21</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -12574,6 +13970,9 @@
       </c>
       <c r="H5" t="n">
         <v>21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -12601,6 +14000,9 @@
       <c r="H6" t="n">
         <v>26</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -12626,6 +14028,9 @@
       </c>
       <c r="H7" t="n">
         <v>21</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -12653,6 +14058,9 @@
       <c r="H8" t="n">
         <v>32</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -12679,6 +14087,9 @@
       <c r="H9" t="n">
         <v>27</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -12705,6 +14116,9 @@
       <c r="H10" t="n">
         <v>25</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -12731,6 +14145,9 @@
       <c r="H11" t="n">
         <v>34</v>
       </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -12757,6 +14174,9 @@
       <c r="H12" t="n">
         <v>22</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -12783,6 +14203,9 @@
       <c r="H13" t="n">
         <v>41</v>
       </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -12809,6 +14232,9 @@
       <c r="H14" t="n">
         <v>38</v>
       </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -12834,6 +14260,9 @@
       </c>
       <c r="H15" t="n">
         <v>21</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -12861,6 +14290,9 @@
       <c r="H16" t="n">
         <v>27</v>
       </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -12886,6 +14318,9 @@
       </c>
       <c r="H17" t="n">
         <v>21</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -12913,6 +14348,9 @@
       <c r="H18" t="n">
         <v>40</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -12939,6 +14377,9 @@
       <c r="H19" t="n">
         <v>41</v>
       </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -12964,6 +14405,9 @@
       </c>
       <c r="H20" t="n">
         <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -12991,6 +14435,9 @@
       <c r="H21" t="n">
         <v>24</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -13017,6 +14464,9 @@
       <c r="H22" t="n">
         <v>60</v>
       </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -13043,6 +14493,9 @@
       <c r="H23" t="n">
         <v>22</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -13069,6 +14522,9 @@
       <c r="H24" t="n">
         <v>21</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -13094,6 +14550,9 @@
       </c>
       <c r="H25" t="n">
         <v>25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -13121,6 +14580,9 @@
       <c r="H26" t="n">
         <v>44</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -13147,6 +14609,9 @@
       <c r="H27" t="n">
         <v>28</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -13173,6 +14638,9 @@
       <c r="H28" t="n">
         <v>31</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -13199,6 +14667,9 @@
       <c r="H29" t="n">
         <v>28</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -13224,6 +14695,9 @@
       </c>
       <c r="H30" t="n">
         <v>37</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -13251,6 +14725,9 @@
       <c r="H31" t="n">
         <v>45</v>
       </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -13277,6 +14754,9 @@
       <c r="H32" t="n">
         <v>24</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -13302,6 +14782,9 @@
       </c>
       <c r="H33" t="n">
         <v>23</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -13329,6 +14812,9 @@
       <c r="H34" t="n">
         <v>29</v>
       </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -13354,6 +14840,9 @@
       </c>
       <c r="H35" t="n">
         <v>24</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -13381,6 +14870,9 @@
       <c r="H36" t="n">
         <v>62</v>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -13406,6 +14898,9 @@
       </c>
       <c r="H37" t="n">
         <v>31</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -13433,6 +14928,9 @@
       <c r="H38" t="n">
         <v>27</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -13459,6 +14957,9 @@
       <c r="H39" t="n">
         <v>29</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -13485,6 +14986,9 @@
       <c r="H40" t="n">
         <v>42</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -13511,6 +15015,9 @@
       <c r="H41" t="n">
         <v>41</v>
       </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -13537,6 +15044,9 @@
       <c r="H42" t="n">
         <v>23</v>
       </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -13563,6 +15073,9 @@
       <c r="H43" t="n">
         <v>24</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -13589,6 +15102,9 @@
       <c r="H44" t="n">
         <v>42</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -13614,6 +15130,9 @@
       </c>
       <c r="H45" t="n">
         <v>25</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -13641,6 +15160,9 @@
       <c r="H46" t="n">
         <v>28</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -13667,6 +15189,9 @@
       <c r="H47" t="n">
         <v>23</v>
       </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -13693,6 +15218,9 @@
       <c r="H48" t="n">
         <v>22</v>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -13719,6 +15247,9 @@
       <c r="H49" t="n">
         <v>22</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -13744,6 +15275,9 @@
       </c>
       <c r="H50" t="n">
         <v>21</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -13771,6 +15305,9 @@
       <c r="H51" t="n">
         <v>25</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -13797,6 +15334,9 @@
       <c r="H52" t="n">
         <v>38</v>
       </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -13823,6 +15363,9 @@
       <c r="H53" t="n">
         <v>27</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -13849,6 +15392,9 @@
       <c r="H54" t="n">
         <v>24</v>
       </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -13875,6 +15421,9 @@
       <c r="H55" t="n">
         <v>23</v>
       </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -13900,6 +15449,9 @@
       </c>
       <c r="H56" t="n">
         <v>24</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -13927,6 +15479,9 @@
       <c r="H57" t="n">
         <v>54</v>
       </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -13953,6 +15508,9 @@
       <c r="H58" t="n">
         <v>43</v>
       </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -13979,6 +15537,9 @@
       <c r="H59" t="n">
         <v>24</v>
       </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -14005,6 +15566,9 @@
       <c r="H60" t="n">
         <v>38</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -14031,6 +15595,9 @@
       <c r="H61" t="n">
         <v>38</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -14057,6 +15624,9 @@
       <c r="H62" t="n">
         <v>29</v>
       </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -14083,6 +15653,9 @@
       <c r="H63" t="n">
         <v>31</v>
       </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -14109,6 +15682,9 @@
       <c r="H64" t="n">
         <v>29</v>
       </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -14135,6 +15711,9 @@
       <c r="H65" t="n">
         <v>22</v>
       </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -14160,6 +15739,9 @@
       </c>
       <c r="H66" t="n">
         <v>32</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -14187,6 +15769,9 @@
       <c r="H67" t="n">
         <v>50</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -14213,6 +15798,9 @@
       <c r="H68" t="n">
         <v>30</v>
       </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -14239,6 +15827,9 @@
       <c r="H69" t="n">
         <v>23</v>
       </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -14265,6 +15856,9 @@
       <c r="H70" t="n">
         <v>72</v>
       </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -14291,6 +15885,9 @@
       <c r="H71" t="n">
         <v>24</v>
       </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -14316,6 +15913,9 @@
       </c>
       <c r="H72" t="n">
         <v>21</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -14343,6 +15943,9 @@
       <c r="H73" t="n">
         <v>26</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -14368,6 +15971,9 @@
       </c>
       <c r="H74" t="n">
         <v>23</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -14395,6 +16001,9 @@
       <c r="H75" t="n">
         <v>69</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -14421,6 +16030,9 @@
       <c r="H76" t="n">
         <v>24</v>
       </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -14447,6 +16059,9 @@
       <c r="H77" t="n">
         <v>66</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -14473,6 +16088,9 @@
       <c r="H78" t="n">
         <v>22</v>
       </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -14499,6 +16117,9 @@
       <c r="H79" t="n">
         <v>24</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -14524,6 +16145,9 @@
       </c>
       <c r="H80" t="n">
         <v>23</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -14551,6 +16175,9 @@
       <c r="H81" t="n">
         <v>27</v>
       </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -14576,6 +16203,9 @@
       </c>
       <c r="H82" t="n">
         <v>52</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -14603,6 +16233,9 @@
       <c r="H83" t="n">
         <v>26</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -14628,6 +16261,9 @@
       </c>
       <c r="H84" t="n">
         <v>26</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -14655,6 +16291,9 @@
       <c r="H85" t="n">
         <v>28</v>
       </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -14681,6 +16320,9 @@
       <c r="H86" t="n">
         <v>21</v>
       </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -14707,6 +16349,9 @@
       <c r="H87" t="n">
         <v>23</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -14732,6 +16377,9 @@
       </c>
       <c r="H88" t="n">
         <v>27</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -14759,6 +16407,9 @@
       <c r="H89" t="n">
         <v>54</v>
       </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -14784,6 +16435,9 @@
       </c>
       <c r="H90" t="n">
         <v>25</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -14811,6 +16465,9 @@
       <c r="H91" t="n">
         <v>30</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -14837,6 +16494,9 @@
       <c r="H92" t="n">
         <v>32</v>
       </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -14863,6 +16523,9 @@
       <c r="H93" t="n">
         <v>42</v>
       </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -14889,6 +16552,9 @@
       <c r="H94" t="n">
         <v>69</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -14915,6 +16581,9 @@
       <c r="H95" t="n">
         <v>21</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -14941,6 +16610,9 @@
       <c r="H96" t="n">
         <v>26</v>
       </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -14966,6 +16638,9 @@
       </c>
       <c r="H97" t="n">
         <v>29</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -14993,6 +16668,9 @@
       <c r="H98" t="n">
         <v>32</v>
       </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -15019,6 +16697,9 @@
       <c r="H99" t="n">
         <v>28</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -15044,6 +16725,9 @@
       </c>
       <c r="H100" t="n">
         <v>26</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -15071,6 +16755,9 @@
       <c r="H101" t="n">
         <v>37</v>
       </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -15097,6 +16784,9 @@
       <c r="H102" t="n">
         <v>34</v>
       </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -15123,6 +16813,9 @@
       <c r="H103" t="n">
         <v>46</v>
       </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -15149,6 +16842,9 @@
       <c r="H104" t="n">
         <v>30</v>
       </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -15175,6 +16871,9 @@
       <c r="H105" t="n">
         <v>23</v>
       </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -15201,6 +16900,9 @@
       <c r="H106" t="n">
         <v>25</v>
       </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -15227,6 +16929,9 @@
       <c r="H107" t="n">
         <v>26</v>
       </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -15252,6 +16957,9 @@
       </c>
       <c r="H108" t="n">
         <v>23</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -15279,6 +16987,9 @@
       <c r="H109" t="n">
         <v>22</v>
       </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -15305,6 +17016,9 @@
       <c r="H110" t="n">
         <v>34</v>
       </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -15331,6 +17045,9 @@
       <c r="H111" t="n">
         <v>21</v>
       </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -15357,6 +17074,9 @@
       <c r="H112" t="n">
         <v>24</v>
       </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -15383,6 +17103,9 @@
       <c r="H113" t="n">
         <v>30</v>
       </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -15408,6 +17131,9 @@
       </c>
       <c r="H114" t="n">
         <v>21</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -15435,6 +17161,9 @@
       <c r="H115" t="n">
         <v>37</v>
       </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -15460,6 +17189,9 @@
       </c>
       <c r="H116" t="n">
         <v>22</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -15487,6 +17219,9 @@
       <c r="H117" t="n">
         <v>25</v>
       </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -15513,6 +17248,9 @@
       <c r="H118" t="n">
         <v>29</v>
       </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -15538,6 +17276,9 @@
       </c>
       <c r="H119" t="n">
         <v>25</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -15565,6 +17306,9 @@
       <c r="H120" t="n">
         <v>40</v>
       </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -15590,6 +17334,9 @@
       </c>
       <c r="H121" t="n">
         <v>24</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -15617,6 +17364,9 @@
       <c r="H122" t="n">
         <v>52</v>
       </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -15643,6 +17393,9 @@
       <c r="H123" t="n">
         <v>46</v>
       </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -15668,6 +17421,9 @@
       </c>
       <c r="H124" t="n">
         <v>22</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -15695,6 +17451,9 @@
       <c r="H125" t="n">
         <v>27</v>
       </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -15721,6 +17480,9 @@
       <c r="H126" t="n">
         <v>42</v>
       </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -15746,6 +17508,9 @@
       </c>
       <c r="H127" t="n">
         <v>22</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -15773,6 +17538,9 @@
       <c r="H128" t="n">
         <v>30</v>
       </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -15799,6 +17567,9 @@
       <c r="H129" t="n">
         <v>29</v>
       </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -15824,6 +17595,9 @@
       </c>
       <c r="H130" t="n">
         <v>38</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -15851,6 +17625,9 @@
       <c r="H131" t="n">
         <v>47</v>
       </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -15877,6 +17654,9 @@
       <c r="H132" t="n">
         <v>53</v>
       </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -15903,6 +17683,9 @@
       <c r="H133" t="n">
         <v>30</v>
       </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -15929,6 +17712,9 @@
       <c r="H134" t="n">
         <v>29</v>
       </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -15955,6 +17741,9 @@
       <c r="H135" t="n">
         <v>45</v>
       </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -15981,6 +17770,9 @@
       <c r="H136" t="n">
         <v>21</v>
       </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -16007,6 +17799,9 @@
       <c r="H137" t="n">
         <v>47</v>
       </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -16032,6 +17827,9 @@
       </c>
       <c r="H138" t="n">
         <v>50</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -16059,6 +17857,9 @@
       <c r="H139" t="n">
         <v>43</v>
       </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -16085,6 +17886,9 @@
       <c r="H140" t="n">
         <v>41</v>
       </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -16111,6 +17915,9 @@
       <c r="H141" t="n">
         <v>31</v>
       </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -16137,6 +17944,9 @@
       <c r="H142" t="n">
         <v>57</v>
       </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -16162,6 +17972,9 @@
       </c>
       <c r="H143" t="n">
         <v>33</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -16189,6 +18002,9 @@
       <c r="H144" t="n">
         <v>39</v>
       </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -16215,6 +18031,9 @@
       <c r="H145" t="n">
         <v>24</v>
       </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -16241,6 +18060,9 @@
       <c r="H146" t="n">
         <v>37</v>
       </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -16267,6 +18089,9 @@
       <c r="H147" t="n">
         <v>25</v>
       </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -16293,6 +18118,9 @@
       <c r="H148" t="n">
         <v>25</v>
       </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -16318,6 +18146,9 @@
       </c>
       <c r="H149" t="n">
         <v>29</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -16345,6 +18176,9 @@
       <c r="H150" t="n">
         <v>30</v>
       </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -16371,6 +18205,9 @@
       <c r="H151" t="n">
         <v>36</v>
       </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -16397,6 +18234,9 @@
       <c r="H152" t="n">
         <v>37</v>
       </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -16422,6 +18262,9 @@
       </c>
       <c r="H153" t="n">
         <v>26</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -16448,6 +18291,9 @@
       </c>
       <c r="H154" t="n">
         <v>36</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16461,7 +18307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16510,6 +18356,11 @@
           <t>Age</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -16536,6 +18387,9 @@
       <c r="H2" t="n">
         <v>40</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -16562,6 +18416,9 @@
       <c r="H3" t="n">
         <v>43</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -16588,6 +18445,9 @@
       <c r="H4" t="n">
         <v>22</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -16613,6 +18473,9 @@
       </c>
       <c r="H5" t="n">
         <v>38</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -16640,6 +18503,9 @@
       <c r="H6" t="n">
         <v>22</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -16665,6 +18531,9 @@
       </c>
       <c r="H7" t="n">
         <v>24</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -16692,6 +18561,9 @@
       <c r="H8" t="n">
         <v>58</v>
       </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -16718,6 +18590,9 @@
       <c r="H9" t="n">
         <v>57</v>
       </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -16744,6 +18619,9 @@
       <c r="H10" t="n">
         <v>22</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -16770,6 +18648,9 @@
       <c r="H11" t="n">
         <v>22</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -16796,6 +18677,9 @@
       <c r="H12" t="n">
         <v>28</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -16821,6 +18705,9 @@
       </c>
       <c r="H13" t="n">
         <v>36</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -16848,6 +18735,9 @@
       <c r="H14" t="n">
         <v>29</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -16873,6 +18763,9 @@
       </c>
       <c r="H15" t="n">
         <v>42</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -16900,6 +18793,9 @@
       <c r="H16" t="n">
         <v>41</v>
       </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -16926,6 +18822,9 @@
       <c r="H17" t="n">
         <v>61</v>
       </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -16952,6 +18851,9 @@
       <c r="H18" t="n">
         <v>22</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -16978,6 +18880,9 @@
       <c r="H19" t="n">
         <v>23</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -17004,6 +18909,9 @@
       <c r="H20" t="n">
         <v>24</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -17029,6 +18937,9 @@
       </c>
       <c r="H21" t="n">
         <v>29</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -17056,6 +18967,9 @@
       <c r="H22" t="n">
         <v>38</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -17082,6 +18996,9 @@
       <c r="H23" t="n">
         <v>51</v>
       </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -17107,6 +19024,9 @@
       </c>
       <c r="H24" t="n">
         <v>25</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -17134,6 +19054,9 @@
       <c r="H25" t="n">
         <v>44</v>
       </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -17160,6 +19083,9 @@
       <c r="H26" t="n">
         <v>24</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -17186,6 +19112,9 @@
       <c r="H27" t="n">
         <v>36</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -17212,6 +19141,9 @@
       <c r="H28" t="n">
         <v>31</v>
       </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -17237,6 +19169,9 @@
       </c>
       <c r="H29" t="n">
         <v>21</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -17264,6 +19199,9 @@
       <c r="H30" t="n">
         <v>38</v>
       </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -17289,6 +19227,9 @@
       </c>
       <c r="H31" t="n">
         <v>21</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -17316,6 +19257,9 @@
       <c r="H32" t="n">
         <v>36</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -17341,6 +19285,9 @@
       </c>
       <c r="H33" t="n">
         <v>22</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -17368,6 +19315,9 @@
       <c r="H34" t="n">
         <v>28</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -17394,6 +19344,9 @@
       <c r="H35" t="n">
         <v>21</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -17419,6 +19372,9 @@
       </c>
       <c r="H36" t="n">
         <v>25</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -17446,6 +19402,9 @@
       <c r="H37" t="n">
         <v>49</v>
       </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -17472,6 +19431,9 @@
       <c r="H38" t="n">
         <v>37</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -17498,6 +19460,9 @@
       <c r="H39" t="n">
         <v>23</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -17524,6 +19489,9 @@
       <c r="H40" t="n">
         <v>36</v>
       </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -17550,6 +19518,9 @@
       <c r="H41" t="n">
         <v>57</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -17576,6 +19547,9 @@
       <c r="H42" t="n">
         <v>46</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -17602,6 +19576,9 @@
       <c r="H43" t="n">
         <v>34</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -17628,6 +19605,9 @@
       <c r="H44" t="n">
         <v>57</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -17654,6 +19634,9 @@
       <c r="H45" t="n">
         <v>22</v>
       </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -17680,6 +19663,9 @@
       <c r="H46" t="n">
         <v>35</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -17705,6 +19691,9 @@
       </c>
       <c r="H47" t="n">
         <v>28</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -17732,6 +19721,9 @@
       <c r="H48" t="n">
         <v>28</v>
       </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -17758,6 +19750,9 @@
       <c r="H49" t="n">
         <v>21</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -17784,6 +19779,9 @@
       <c r="H50" t="n">
         <v>37</v>
       </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -17810,6 +19808,9 @@
       <c r="H51" t="n">
         <v>28</v>
       </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -17836,6 +19837,9 @@
       <c r="H52" t="n">
         <v>58</v>
       </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -17862,6 +19866,9 @@
       <c r="H53" t="n">
         <v>43</v>
       </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -17888,6 +19895,9 @@
       <c r="H54" t="n">
         <v>26</v>
       </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -17913,6 +19923,9 @@
       </c>
       <c r="H55" t="n">
         <v>24</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -17940,6 +19953,9 @@
       <c r="H56" t="n">
         <v>39</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -17966,6 +19982,9 @@
       <c r="H57" t="n">
         <v>22</v>
       </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -17992,6 +20011,9 @@
       <c r="H58" t="n">
         <v>34</v>
       </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -18018,6 +20040,9 @@
       <c r="H59" t="n">
         <v>24</v>
       </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -18043,6 +20068,9 @@
       </c>
       <c r="H60" t="n">
         <v>28</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -18070,6 +20098,9 @@
       <c r="H61" t="n">
         <v>24</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -18095,6 +20126,9 @@
       </c>
       <c r="H62" t="n">
         <v>42</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -18122,6 +20156,9 @@
       <c r="H63" t="n">
         <v>41</v>
       </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -18148,6 +20185,9 @@
       <c r="H64" t="n">
         <v>33</v>
       </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -18174,6 +20214,9 @@
       <c r="H65" t="n">
         <v>25</v>
       </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -18200,6 +20243,9 @@
       <c r="H66" t="n">
         <v>27</v>
       </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -18226,6 +20272,9 @@
       <c r="H67" t="n">
         <v>21</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -18252,6 +20301,9 @@
       <c r="H68" t="n">
         <v>23</v>
       </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -18277,6 +20329,9 @@
       </c>
       <c r="H69" t="n">
         <v>27</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -18304,6 +20359,9 @@
       <c r="H70" t="n">
         <v>28</v>
       </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -18329,6 +20387,9 @@
       </c>
       <c r="H71" t="n">
         <v>27</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -18356,6 +20417,9 @@
       <c r="H72" t="n">
         <v>53</v>
       </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -18381,6 +20445,9 @@
       </c>
       <c r="H73" t="n">
         <v>21</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -18408,6 +20475,9 @@
       <c r="H74" t="n">
         <v>29</v>
       </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -18434,6 +20504,9 @@
       <c r="H75" t="n">
         <v>43</v>
       </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -18459,6 +20532,9 @@
       </c>
       <c r="H76" t="n">
         <v>25</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -18486,6 +20562,9 @@
       <c r="H77" t="n">
         <v>52</v>
       </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -18512,6 +20591,9 @@
       <c r="H78" t="n">
         <v>21</v>
       </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -18538,6 +20620,9 @@
       <c r="H79" t="n">
         <v>31</v>
       </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -18564,6 +20649,9 @@
       <c r="H80" t="n">
         <v>66</v>
       </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -18590,6 +20678,9 @@
       <c r="H81" t="n">
         <v>22</v>
       </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -18616,6 +20707,9 @@
       <c r="H82" t="n">
         <v>23</v>
       </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -18642,6 +20736,9 @@
       <c r="H83" t="n">
         <v>34</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -18668,6 +20765,9 @@
       <c r="H84" t="n">
         <v>58</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -18694,6 +20794,9 @@
       <c r="H85" t="n">
         <v>35</v>
       </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -18720,6 +20823,9 @@
       <c r="H86" t="n">
         <v>36</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -18746,6 +20852,9 @@
       <c r="H87" t="n">
         <v>24</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -18771,6 +20880,9 @@
       </c>
       <c r="H88" t="n">
         <v>45</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -18798,6 +20910,9 @@
       <c r="H89" t="n">
         <v>25</v>
       </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -18824,6 +20939,9 @@
       <c r="H90" t="n">
         <v>25</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -18850,6 +20968,9 @@
       <c r="H91" t="n">
         <v>21</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -18876,6 +20997,9 @@
       <c r="H92" t="n">
         <v>51</v>
       </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -18902,6 +21026,9 @@
       <c r="H93" t="n">
         <v>34</v>
       </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -18928,6 +21055,9 @@
       <c r="H94" t="n">
         <v>48</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -18954,6 +21084,9 @@
       <c r="H95" t="n">
         <v>42</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -18980,6 +21113,9 @@
       <c r="H96" t="n">
         <v>22</v>
       </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -19006,6 +21142,9 @@
       <c r="H97" t="n">
         <v>44</v>
       </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -19031,6 +21170,9 @@
       </c>
       <c r="H98" t="n">
         <v>23</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -19058,6 +21200,9 @@
       <c r="H99" t="n">
         <v>41</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -19084,6 +21229,9 @@
       <c r="H100" t="n">
         <v>31</v>
       </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -19110,6 +21258,9 @@
       <c r="H101" t="n">
         <v>58</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -19135,6 +21286,9 @@
       </c>
       <c r="H102" t="n">
         <v>23</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -19162,6 +21316,9 @@
       <c r="H103" t="n">
         <v>63</v>
       </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -19188,6 +21345,9 @@
       <c r="H104" t="n">
         <v>55</v>
       </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -19214,6 +21374,9 @@
       <c r="H105" t="n">
         <v>37</v>
       </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -19240,6 +21403,9 @@
       <c r="H106" t="n">
         <v>36</v>
       </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -19266,6 +21432,9 @@
       <c r="H107" t="n">
         <v>28</v>
       </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -19292,6 +21461,9 @@
       <c r="H108" t="n">
         <v>24</v>
       </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -19317,6 +21489,9 @@
       </c>
       <c r="H109" t="n">
         <v>28</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -19344,6 +21519,9 @@
       <c r="H110" t="n">
         <v>28</v>
       </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -19370,6 +21548,9 @@
       <c r="H111" t="n">
         <v>37</v>
       </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -19396,6 +21577,9 @@
       <c r="H112" t="n">
         <v>21</v>
       </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -19421,6 +21605,9 @@
       </c>
       <c r="H113" t="n">
         <v>33</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -19448,6 +21635,9 @@
       <c r="H114" t="n">
         <v>41</v>
       </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -19474,6 +21664,9 @@
       <c r="H115" t="n">
         <v>28</v>
       </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -19499,6 +21692,9 @@
       </c>
       <c r="H116" t="n">
         <v>28</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -19526,6 +21722,9 @@
       <c r="H117" t="n">
         <v>39</v>
       </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -19552,6 +21751,9 @@
       <c r="H118" t="n">
         <v>27</v>
       </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -19577,6 +21779,9 @@
       </c>
       <c r="H119" t="n">
         <v>21</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -19604,6 +21809,9 @@
       <c r="H120" t="n">
         <v>41</v>
       </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -19629,6 +21837,9 @@
       </c>
       <c r="H121" t="n">
         <v>22</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -19656,6 +21867,9 @@
       <c r="H122" t="n">
         <v>41</v>
       </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -19682,6 +21896,9 @@
       <c r="H123" t="n">
         <v>26</v>
       </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -19707,6 +21924,9 @@
       </c>
       <c r="H124" t="n">
         <v>21</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -19734,6 +21954,9 @@
       <c r="H125" t="n">
         <v>25</v>
       </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -19760,6 +21983,9 @@
       <c r="H126" t="n">
         <v>33</v>
       </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -19786,6 +22012,9 @@
       <c r="H127" t="n">
         <v>59</v>
       </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -19811,6 +22040,9 @@
       </c>
       <c r="H128" t="n">
         <v>26</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -19838,6 +22070,9 @@
       <c r="H129" t="n">
         <v>25</v>
       </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -19864,6 +22099,9 @@
       <c r="H130" t="n">
         <v>27</v>
       </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -19890,6 +22128,9 @@
       <c r="H131" t="n">
         <v>23</v>
       </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -19915,6 +22156,9 @@
       </c>
       <c r="H132" t="n">
         <v>23</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -19942,6 +22186,9 @@
       <c r="H133" t="n">
         <v>22</v>
       </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -19968,6 +22215,9 @@
       <c r="H134" t="n">
         <v>21</v>
       </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -19994,6 +22244,9 @@
       <c r="H135" t="n">
         <v>31</v>
       </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -20020,6 +22273,9 @@
       <c r="H136" t="n">
         <v>60</v>
       </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -20045,6 +22301,9 @@
       </c>
       <c r="H137" t="n">
         <v>23</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -20072,6 +22331,9 @@
       <c r="H138" t="n">
         <v>22</v>
       </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -20098,6 +22360,9 @@
       <c r="H139" t="n">
         <v>29</v>
       </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -20124,6 +22389,9 @@
       <c r="H140" t="n">
         <v>21</v>
       </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -20150,6 +22418,9 @@
       <c r="H141" t="n">
         <v>22</v>
       </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -20176,6 +22447,9 @@
       <c r="H142" t="n">
         <v>24</v>
       </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -20202,6 +22476,9 @@
       <c r="H143" t="n">
         <v>38</v>
       </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -20228,6 +22505,9 @@
       <c r="H144" t="n">
         <v>26</v>
       </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -20254,6 +22534,9 @@
       <c r="H145" t="n">
         <v>22</v>
       </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -20279,6 +22562,9 @@
       </c>
       <c r="H146" t="n">
         <v>46</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -20306,6 +22592,9 @@
       <c r="H147" t="n">
         <v>27</v>
       </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -20331,6 +22620,9 @@
       </c>
       <c r="H148" t="n">
         <v>32</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -20358,6 +22650,9 @@
       <c r="H149" t="n">
         <v>29</v>
       </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -20384,6 +22679,9 @@
       <c r="H150" t="n">
         <v>45</v>
       </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -20410,6 +22708,9 @@
       <c r="H151" t="n">
         <v>22</v>
       </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -20435,6 +22736,9 @@
       </c>
       <c r="H152" t="n">
         <v>22</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -20462,6 +22766,9 @@
       <c r="H153" t="n">
         <v>24</v>
       </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -20488,6 +22795,9 @@
       <c r="H154" t="n">
         <v>43</v>
       </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -20513,6 +22823,9 @@
       </c>
       <c r="H155" t="n">
         <v>40</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
